--- a/BackTest/2019-10-17 BackTest GTO.xlsx
+++ b/BackTest/2019-10-17 BackTest GTO.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.400000000000004</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-7.69230769230765</v>
+      </c>
       <c r="L12" t="n">
         <v>15.8</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.600000000000005</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>6.666666666666746</v>
+      </c>
       <c r="L13" t="n">
         <v>15.81</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.600000000000005</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-16.66666666666657</v>
+      </c>
       <c r="L14" t="n">
         <v>15.82</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.700000000000006</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-16.66666666666669</v>
+      </c>
       <c r="L15" t="n">
         <v>15.79</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.700000000000006</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>15.77</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.700000000000006</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-11.11111111111124</v>
+      </c>
       <c r="L17" t="n">
         <v>15.77</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.800000000000008</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-11.11111111111102</v>
+      </c>
       <c r="L18" t="n">
         <v>15.77</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.900000000000007</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>11.11111111111102</v>
+      </c>
       <c r="L19" t="n">
         <v>15.77</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.000000000000007</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>11.11111111111102</v>
+      </c>
       <c r="L20" t="n">
         <v>15.79</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.100000000000009</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>71.4285714285712</v>
+      </c>
       <c r="L21" t="n">
         <v>15.81</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.30000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>14.28571428571414</v>
+      </c>
       <c r="L22" t="n">
         <v>15.84</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.70000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>23.07692307692306</v>
+        <v>45.45454545454525</v>
       </c>
       <c r="L23" t="n">
         <v>15.89</v>
@@ -1466,7 +1488,7 @@
         <v>3.000000000000011</v>
       </c>
       <c r="K24" t="n">
-        <v>10.34482758620689</v>
+        <v>23.07692307692306</v>
       </c>
       <c r="L24" t="n">
         <v>15.91</v>
